--- a/REGULAR/OJT/MARINDUQUE, GERRY C..xlsx
+++ b/REGULAR/OJT/MARINDUQUE, GERRY C..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="147">
   <si>
     <t>PERIOD</t>
   </si>
@@ -457,6 +457,24 @@
   </si>
   <si>
     <t>1/3-6/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/27,28/2023</t>
+  </si>
+  <si>
+    <t>2024/27,28/202024</t>
+  </si>
+  <si>
+    <t>01/27,28/2024</t>
+  </si>
+  <si>
+    <t>02/27,28/2024</t>
+  </si>
+  <si>
+    <t>03/27,28/2024</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1355,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1398,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1462,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1522,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1588,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1651,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1749,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1808,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1873,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1916,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1991,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2177,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2243,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2301,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2367,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2423,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2498,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2541,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2607,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2663,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2761,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2824,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2890,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K386" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K389" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3250,12 +3268,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K386"/>
+  <dimension ref="A2:K389"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4155" topLeftCell="A349" activePane="bottomLeft"/>
-      <selection activeCell="D11" sqref="D11"/>
-      <selection pane="bottomLeft" activeCell="I361" sqref="I361"/>
+      <pane ySplit="3690" topLeftCell="A346" activePane="bottomLeft"/>
+      <selection activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="K366" sqref="K366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3414,7 +3432,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>221.56400000000002</v>
+        <v>225.31400000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3424,7 +3442,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10793,7 +10811,9 @@
       <c r="B361" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C361" s="13"/>
+      <c r="C361" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D361" s="37"/>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
@@ -10811,67 +10831,97 @@
       <c r="A362" s="38">
         <v>45200</v>
       </c>
-      <c r="B362" s="20"/>
-      <c r="C362" s="13"/>
+      <c r="B362" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C362" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D362" s="37"/>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
       <c r="G362" s="13"/>
-      <c r="H362" s="37"/>
+      <c r="H362" s="37">
+        <v>1</v>
+      </c>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
-      <c r="K362" s="20"/>
+      <c r="K362" s="54">
+        <v>45205</v>
+      </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="38">
-        <v>45231</v>
-      </c>
-      <c r="B363" s="20"/>
+      <c r="A363" s="38"/>
+      <c r="B363" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C363" s="13"/>
       <c r="D363" s="37"/>
       <c r="E363" s="9"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="13"/>
+      <c r="G363" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H363" s="37"/>
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
-      <c r="K363" s="20"/>
+      <c r="K363" s="54">
+        <v>45230</v>
+      </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="38">
-        <v>45261</v>
-      </c>
-      <c r="B364" s="20"/>
-      <c r="C364" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B364" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C364" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D364" s="37"/>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
       <c r="G364" s="13"/>
-      <c r="H364" s="37"/>
+      <c r="H364" s="37">
+        <v>1</v>
+      </c>
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
-      <c r="K364" s="20"/>
+      <c r="K364" s="54">
+        <v>45237</v>
+      </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="38">
-        <v>45292</v>
-      </c>
-      <c r="B365" s="20"/>
+      <c r="A365" s="38"/>
+      <c r="B365" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C365" s="13"/>
       <c r="D365" s="37"/>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="13"/>
-      <c r="H365" s="37"/>
+      <c r="G365" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="37">
+        <v>1</v>
+      </c>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
-      <c r="K365" s="20"/>
+      <c r="K365" s="54">
+        <v>45246</v>
+      </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="38">
-        <v>45323</v>
-      </c>
-      <c r="B366" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B366" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C366" s="13"/>
       <c r="D366" s="37"/>
       <c r="E366" s="9"/>
@@ -10880,25 +10930,32 @@
       <c r="H366" s="37"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
-      <c r="K366" s="20"/>
+      <c r="K366" s="20" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="38">
-        <v>45352</v>
+      <c r="A367" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
       <c r="D367" s="37"/>
       <c r="E367" s="9"/>
       <c r="F367" s="20"/>
-      <c r="G367" s="13"/>
+      <c r="G367" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H367" s="37"/>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" s="38"/>
+      <c r="A368" s="38">
+        <v>45292</v>
+      </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
       <c r="D368" s="37"/>
@@ -10911,7 +10968,9 @@
       <c r="K368" s="20"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A369" s="38"/>
+      <c r="A369" s="38">
+        <v>45323</v>
+      </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
       <c r="D369" s="37"/>
@@ -10924,7 +10983,9 @@
       <c r="K369" s="20"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A370" s="38"/>
+      <c r="A370" s="38">
+        <v>45352</v>
+      </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
       <c r="D370" s="37"/>
@@ -10956,10 +11017,7 @@
       <c r="D372" s="37"/>
       <c r="E372" s="9"/>
       <c r="F372" s="20"/>
-      <c r="G372" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G372" s="13"/>
       <c r="H372" s="37"/>
       <c r="I372" s="9"/>
       <c r="J372" s="11"/>
@@ -10972,10 +11030,7 @@
       <c r="D373" s="37"/>
       <c r="E373" s="9"/>
       <c r="F373" s="20"/>
-      <c r="G373" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G373" s="13"/>
       <c r="H373" s="37"/>
       <c r="I373" s="9"/>
       <c r="J373" s="11"/>
@@ -10988,10 +11043,7 @@
       <c r="D374" s="37"/>
       <c r="E374" s="9"/>
       <c r="F374" s="20"/>
-      <c r="G374" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G374" s="13"/>
       <c r="H374" s="37"/>
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
@@ -11188,6 +11240,54 @@
       <c r="I386" s="9"/>
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="38"/>
+      <c r="B387" s="20"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="37"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H387" s="37"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="20"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="38"/>
+      <c r="B388" s="20"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="37"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H388" s="37"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="20"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="38"/>
+      <c r="B389" s="20"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="37"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H389" s="37"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
